--- a/Projects/Gene Regulation Network/Dataset/Exp3.xlsx
+++ b/Projects/Gene Regulation Network/Dataset/Exp3.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\GRN Datasets\E Coli SOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Masters in Computer and Information Science\CSMC\Projects\Gene Regulation Network\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB714B5-00F7-4582-863B-9CAD13F7EABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp3" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>time (min)</t>
   </si>
@@ -53,11 +55,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +198,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -540,7 +548,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,6 +561,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY62"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
@@ -3771,11 +3785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K53"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5272,7 +5286,1483 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7303ED05-2D29-4640-A07F-DAF6E9C5D7DC}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>7.9701646411940899E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.53264697341969502</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.7489865723867004E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.44367780405818502</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.58250375926098896</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.1026340729186702E-2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.0433212935977298E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.105673358424882</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.86023802703676999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9.2771838990309302E-2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.73446801033983</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.84113361057380798</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9.2849444527845805E-3</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3.0479958373280901E-3</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2.0955070366661499E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>9.2567530617737107E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.85322264768553902</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.12556491660566699</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.86859724850968201</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.6327343182423304E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3.3006096779924902E-3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.1426246653828598E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8.1245045691232198E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.72808456153632195</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.12501692667546499</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.84044862304227097</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.88880952332183105</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7.3844014521123498E-3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.1988490623276999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3.7842186822134999E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.62001968651809902</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9.4590025143457004E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.77391536394623806</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.72829678852130697</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4.8622225084693398E-3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4.41084354580968E-4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2.4882067341800498E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3.3758395049440497E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.478883779185588</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8.3936689715934307E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.668607859906445</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.53692953015616496</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.2851630147545199E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.2840567405079299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3.9947038195379501E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.33772253177070899</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.2028204046726704E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.60054149643996002</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.33204703523495099</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.11736090597026E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2.0051520551592799E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3.5164004975437202E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.247113352304905</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.2527864722116397E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.51602830850627202</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.24498870359289901</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8.8272303436217805E-3</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1.7782747344540301E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>54</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3.8520839050374601E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.200025815693255</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.14104800769387E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.47124913973168298</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.189164212444413</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.17897017459196E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.7236341231846999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6.3889920555102703E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.147059266034516</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4.1960029991841903E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.41454247985788001</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.16501543794212101</v>
+      </c>
+      <c r="G11" s="7">
+        <v>8.9190899251551797E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.5626422928526701E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>66</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8.4934474791287198E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.152046607641284</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2.69916700725466E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.36456453406769801</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.16317191123146901</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.41740913220139E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7">
+        <v>6.3438541592442999E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.169108732429819</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2.4482161421909902E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.34835606985946999</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.15466460562470999</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1.1181527985704501E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>78</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.7546042610562701E-2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.11683508905757101</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2.1822985005218901E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.31335915427208699</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.14818217017490801</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7.0549739954949304E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>84</v>
+      </c>
+      <c r="B15" s="7">
+        <v>6.0872808541535497E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9.30783015491677E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.5848944841356301E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.28389677831291998</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.136747236485873</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4.1415999557899499E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>90</v>
+      </c>
+      <c r="B16" s="7">
+        <v>6.4517891606565805E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.104951943945867</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.68134704141975E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.232239227645894</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.12401439024261</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1.5101397924591E-3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4.71730610609349E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>96</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.8978553159537403E-2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7.5620230317997195E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2.50063945313449E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.23541630204452199</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.101013860485729</v>
+      </c>
+      <c r="G17" s="7">
+        <v>4.6998844622374199E-3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5.4719800576859203E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>102</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2.73060515621583E-2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6.5309784539350393E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.0706415992324E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.22820928457571399</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8.2702128674252098E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6.4768921692913602E-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8.52868671551664E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>108</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.62417237249943E-2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7.43516178650485E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.5067346532329801E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.222418963598675</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6.2428878123335897E-2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2.14286223325794E-3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.2163475204302299E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>114</v>
+      </c>
+      <c r="B20" s="7">
+        <v>9.6428800496607299E-3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9.7879548304615899E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.1267868072023001E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.24404318345006501</v>
+      </c>
+      <c r="F20" s="7">
+        <v>6.9233613926983698E-2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3.01552822789165E-3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3.7622832482556898E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>120</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1.3524739128533801E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.11496780555941</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.8096360691687399E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.244829533116593</v>
+      </c>
+      <c r="F21" s="7">
+        <v>6.4015039620142405E-2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>8.8517790256309199E-3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1.2874595045304299E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>126</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.8974569939748899E-2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.11108673838929201</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2.2848486331081198E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.242205200005669</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.4104499780391599E-2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>7.2291904388070002E-3</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1.10849170514208E-2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4.3577867221164203E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>132</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3.0786420932139302E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.106029710237508</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2.0985954190422401E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.21529509488614601</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5.0975730865534898E-2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6.2393242942073296E-3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.09875142226363E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>9.6333773346573698E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>138</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3.0101433557396601E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9.7364817924438393E-2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.8691840411611399E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.213984512124437</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5.0432492292833697E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>7.2268147600561602E-3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1.0308861994396699E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>144</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2.30052811286366E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8.5899792272883205E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>9.2722741645296508E-3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.20953011446661199</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4.43784709601973E-2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>7.51110431565626E-3</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1.27328462100032E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>150</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1.7260098019355401E-2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7.0536277791199004E-2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7.7771803357503701E-3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.19598161855057</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4.5144231407717297E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>7.0969443232606804E-3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1.2407378221138099E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>156</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1.52898684404081E-2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6.30307167085397E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1.27716489645174E-2</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.183738162177494</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4.7115252881165297E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>4.5518004866099901E-3</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1.00562481523069E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>162</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1.54276578079568E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>7.0945686445098396E-2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2.3436862771540199E-2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.183565529489923</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5.2153275617196897E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>7.8516182715271492E-3</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8.6767706925694708E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>168</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1.0691346273282E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8.1589519110104106E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2.4073544676765399E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.17093008612295901</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5.0027835043949601E-2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>9.6460476229123099E-3</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1.2828665254537599E-4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>8.98006567817629E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>174</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1.6322496802522901E-2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7.2687058969464299E-2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2.6023185036704501E-2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.16460602928822199</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4.2234024937937903E-2</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1.3454260660509299E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>7.3281770518415596E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>180</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.2751875396797398E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6.9418125008308101E-2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.9957309048096001E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.17258118285479301</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3.97261000715513E-2</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1.2336899753113599E-2</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6.4531353817829599E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>186</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2.7794649490330701E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7.2706856260712202E-2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2.5162397434399599E-2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.187250999141232</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4.1195061434071298E-2</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1.14088012560358E-2</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>8.2523160859184295E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>192</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2.51283460421385E-2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6.2694162234675194E-2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.1201349066999501E-2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.17833190920182199</v>
+      </c>
+      <c r="F33" s="7">
+        <v>3.43626093466547E-2</v>
+      </c>
+      <c r="G33" s="7">
+        <v>4.2817650020895298E-3</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>5.0926633473008503E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>198</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.51473514721452E-2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>5.8113061694300402E-2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2.0786397175351801E-2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.169280573161121</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3.81668629164994E-2</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1.32879631479505E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>204</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.46888217164455E-2</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6.0495075620151897E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.8800329739649301E-2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.15693496260175899</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4.9123493301120702E-2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>210</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1.46476432831805E-2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>5.90356169583812E-2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1.55234768524912E-2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.141461374988781</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4.9203474517408002E-2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>3.5358018743256799E-3</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>216</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1.6826932592201801E-2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5.66441003650398E-2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1.46531865351829E-2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.13374754608480299</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3.8893820614256502E-2</v>
+      </c>
+      <c r="G37" s="7">
+        <v>3.8565185056891101E-3</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>222</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.05432860530167E-2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5.6391486508695902E-2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1.42516968262909E-2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.13578350277427301</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4.0398417158039102E-2</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2.9070388979531899E-3</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3.7416940325734598E-3</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>228</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1.9787820210249499E-2</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5.5174347079510903E-2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1.5346884730428299E-2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.138213822136382</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4.8360108560859698E-2</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1.1229041560721299E-3</v>
+      </c>
+      <c r="H39" s="7">
+        <v>6.2789189384708797E-3</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>234</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2.2667934746017301E-2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6.0757984052740403E-2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1.5137825000354301E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.130092960304769</v>
+      </c>
+      <c r="F40" s="7">
+        <v>4.9570912815033501E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1.70256976985175E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>240</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2.2860364724835401E-2</v>
+      </c>
+      <c r="C41" s="7">
+        <v>7.3605654737284698E-2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1.47418785434647E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.12522202695679199</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5.4111626816644103E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>246</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1.6937797598990501E-2</v>
+      </c>
+      <c r="C42" s="7">
+        <v>7.5997171330626001E-2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1.17303097771486E-2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.105637723243619</v>
+      </c>
+      <c r="F42" s="7">
+        <v>5.5083279425737701E-2</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>252</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1.4543113418143501E-2</v>
+      </c>
+      <c r="C43" s="7">
+        <v>6.4873451557950601E-2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>6.0152185971276096E-3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.100916457656945</v>
+      </c>
+      <c r="F43" s="7">
+        <v>5.6368521629942298E-2</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>258</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1.7072419398038999E-2</v>
+      </c>
+      <c r="C44" s="7">
+        <v>4.9296917849932002E-2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>4.4195543696382601E-3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.108515462072128</v>
+      </c>
+      <c r="F44" s="7">
+        <v>4.3490758997132402E-2</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>264</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1.6248058871497498E-2</v>
+      </c>
+      <c r="C45" s="7">
+        <v>4.19481515980877E-2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>4.3261110052801701E-3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>9.8235108256000805E-2</v>
+      </c>
+      <c r="F45" s="7">
+        <v>3.5995492538231297E-2</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1.18783937542014E-5</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>3.8850266506992E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>270</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1.49224301285286E-2</v>
+      </c>
+      <c r="C46" s="7">
+        <v>4.0371492797279099E-2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>7.1911795787935502E-3</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.100409646174261</v>
+      </c>
+      <c r="F46" s="7">
+        <v>3.4583547470482798E-2</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2.2378893832915498E-3</v>
+      </c>
+      <c r="I46" s="7">
+        <v>5.0190173060247999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>276</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1.6206880438232499E-2</v>
+      </c>
+      <c r="C47" s="7">
+        <v>5.0989193029285097E-2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1.15711393008423E-2</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.10444434060194201</v>
+      </c>
+      <c r="F47" s="7">
+        <v>3.5905216745699402E-2</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1.8403591388259E-3</v>
+      </c>
+      <c r="H47" s="7">
+        <v>4.80362243419906E-3</v>
+      </c>
+      <c r="I47" s="7">
+        <v>7.1856363267911397E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>282</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1.36918285355933E-2</v>
+      </c>
+      <c r="C48" s="7">
+        <v>5.5883883164770901E-2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1.2061321018016101E-2</v>
+      </c>
+      <c r="E48" s="7">
+        <v>9.6892849761776007E-2</v>
+      </c>
+      <c r="F48" s="7">
+        <v>3.9243045390629998E-2</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1.7580022756218099E-3</v>
+      </c>
+      <c r="H48" s="7">
+        <v>4.6254465278860396E-3</v>
+      </c>
+      <c r="I48" s="7">
+        <v>5.0435659880339297E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>288</v>
+      </c>
+      <c r="B49" s="7">
+        <v>7.35906087560248E-3</v>
+      </c>
+      <c r="C49" s="7">
+        <v>5.5447550135857497E-2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1.1795244997922E-2</v>
+      </c>
+      <c r="E49" s="7">
+        <v>8.8977880025217407E-2</v>
+      </c>
+      <c r="F49" s="7">
+        <v>4.0924234056475599E-2</v>
+      </c>
+      <c r="G49" s="7">
+        <v>2.00903233013556E-3</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>3.6664642070472999E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>294</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3.83434550385623E-3</v>
+      </c>
+      <c r="C50" s="7">
+        <v>5.06692683066765E-2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>9.2596038762747107E-3</v>
+      </c>
+      <c r="E50" s="7">
+        <v>8.7519213272201399E-2</v>
+      </c>
+      <c r="F50" s="7">
+        <v>4.07405148981601E-2</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2.79696578281435E-3</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C3:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
